--- a/MainTop/12.02.2026 Таня Озон/print_print_sorted.xlsx
+++ b/MainTop/12.02.2026 Таня Озон/print_print_sorted.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\12.02.2026 Таня Озон\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\12.02.2026 Таня Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3C974C-4F69-4834-B620-99C3CFF0923A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981F651E-9D40-459B-932A-5E37B649B476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -690,7 +690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -3574,5 +3574,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>